--- a/xlsx/股市_intext.xlsx
+++ b/xlsx/股市_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t>股市</t>
   </si>
@@ -26,34 +26,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E5%88%B8%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>證券市場</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_股市</t>
+    <t>证券市场</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_股市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E4%B8%AD%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>集中市場</t>
+    <t>集中市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%97%E9%A0%AD%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>店頭市場</t>
+    <t>店头市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>金融市場</t>
+    <t>金融市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>股票市場</t>
+    <t>股票市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E6%97%A5%E6%B2%96%E9%8A%B7</t>
   </si>
   <si>
-    <t>當日沖銷</t>
+    <t>当日冲销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%85%88%E8%82%A1</t>
   </si>
   <si>
-    <t>優先股</t>
+    <t>优先股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%80%9A%E8%82%A1</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8C%AF%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>外匯市場</t>
+    <t>外汇市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E7%86%8A%E8%AD%89</t>
   </si>
   <si>
-    <t>牛熊證</t>
+    <t>牛熊证</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%94%A8%E8%A1%8D%E7%94%9F%E5%B7%A5%E5%85%B7</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A0%E6%9C%9F%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>遠期契約</t>
+    <t>远期契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%89%E6%9C%9F%E4%BA%A4%E6%98%93</t>
@@ -155,13 +155,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%94%A2%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>地產市場</t>
+    <t>地产市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A8%E6%A9%9F%E6%BC%AB%E6%AD%A5%E5%81%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>隨機漫步假說</t>
+    <t>随机漫步假说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D</t>
@@ -173,13 +173,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA</t>
   </si>
   <si>
-    <t>金融市场</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8%E9%87%91%E8%9E%8D%E5%AD%B8</t>
   </si>
   <si>
-    <t>公司金融學</t>
+    <t>公司金融学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%90%86%E8%B4%A2</t>
@@ -191,13 +188,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%B2%A1%E6%94%BF</t>
   </si>
   <si>
-    <t>公共財政</t>
+    <t>公共财政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>銀行</t>
+    <t>银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%87%91%E8%9E%8D%E5%B8%82%E5%9C%BA%E4%BE%A7%E9%9D%A2%E6%A8%A1%E6%9D%BF</t>
@@ -209,7 +206,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>荷蘭人</t>
+    <t>荷兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E4%B8%9C%E5%8D%B0%E5%BA%A6%E5%85%AC%E5%8F%B8</t>
@@ -227,13 +224,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E4%BA%AC%E8%AD%89%E4%BA%A4%E6%89%80</t>
   </si>
   <si>
-    <t>東京證交所</t>
+    <t>东京证交所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E8%AD%89%E4%BA%A4%E6%89%80</t>
   </si>
   <si>
-    <t>紐約證交所</t>
+    <t>纽约证交所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%81%E5%88%B8%E7%BB%8F%E7%BA%AA%E4%BA%BA</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E8%A8%88%E7%AE%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子計算機</t>
+    <t>电子计算机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B</t>
@@ -305,13 +302,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E5%9C%98%E6%B3%95%E4%BA%BA%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E8%AD%89%E5%88%B8%E6%AB%83%E6%AA%AF%E8%B2%B7%E8%B3%A3%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>財團法人中華民國證券櫃檯買賣中心</t>
+    <t>财团法人中华民国证券柜台买卖中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E6%9C%AF%E5%88%86%E6%9E%90</t>
@@ -353,13 +350,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>臺灣銀行</t>
+    <t>台湾银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E5%B8%82%E5%A0%B4</t>
   </si>
   <si>
-    <t>一級市場</t>
+    <t>一级市场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%BF%E6%8A%95%E8%B5%84</t>
@@ -371,7 +368,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E6%AC%A1%E5%85%AC%E9%96%8B%E5%8B%9F%E8%82%A1</t>
   </si>
   <si>
-    <t>首次公開募股</t>
+    <t>首次公开募股</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E6%AC%A1%E4%BB%A3%E5%B8%81%E5%8F%91%E8%A1%8C</t>
@@ -395,25 +392,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>證券交易所</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E8%B2%A8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>期貨交易所</t>
+    <t>期货交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E8%A8%82%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>合訂證券</t>
+    <t>合订证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8B%95%E7%94%A2%E6%8A%95%E8%B3%87%E4%BF%A1%E8%A8%97</t>
   </si>
   <si>
-    <t>不動產投資信託</t>
+    <t>不动产投资信讬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E5%88%B8</t>
@@ -425,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E4%B9%85%E5%82%B5%E5%88%B8</t>
   </si>
   <si>
-    <t>永久債券</t>
+    <t>永久债券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%BD%AC%E6%8D%A2%E5%80%BA%E5%88%B8</t>
@@ -443,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B5%E5%8B%99%E6%93%94%E4%BF%9D%E8%AD%89%E5%88%B8</t>
   </si>
   <si>
-    <t>債務擔保證券</t>
+    <t>债务担保证券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E8%B2%B7%E5%9B%9E%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>附買回協議</t>
+    <t>附买回协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C%E7%A5%A8%E6%8D%AE</t>
@@ -461,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E7%A5%A8%E6%93%9A</t>
   </si>
   <si>
-    <t>商業票據</t>
+    <t>商业票据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%82%B5%E5%88%B8</t>
   </si>
   <si>
-    <t>綠色債券</t>
+    <t>绿色债券</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E7%BB%9C%E5%80%9F%E8%B4%B7</t>
@@ -479,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%B9%A3</t>
   </si>
   <si>
-    <t>外幣</t>
+    <t>外币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E9%87%91%E5%B1%AC</t>
   </si>
   <si>
-    <t>貴金屬</t>
+    <t>贵金属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91</t>
@@ -497,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%80</t>
   </si>
   <si>
-    <t>銀</t>
+    <t>银</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%80</t>
   </si>
   <si>
-    <t>鈀</t>
+    <t>钯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%82</t>
@@ -515,31 +509,28 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%A0</t>
   </si>
   <si>
-    <t>銠</t>
+    <t>铑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E8%B2%A8</t>
   </si>
   <si>
-    <t>期貨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%AF%E8%A8%88%E6%9C%9F%E6%AC%8A</t>
   </si>
   <si>
-    <t>累計期權</t>
+    <t>累计期权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E6%8E%9B%E9%89%A4%E7%A5%A8%E6%93%9A</t>
   </si>
   <si>
-    <t>資產掛鉤票據</t>
+    <t>资产挂钩票据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%AE%E5%83%B9%E5%90%88%E7%B4%84</t>
   </si>
   <si>
-    <t>差價合約</t>
+    <t>差价合约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9C%E6%9C%9F%E5%90%88%E7%BA%A6</t>
@@ -551,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%8C%AF%E6%8E%89%E6%9C%9F</t>
   </si>
   <si>
-    <t>外匯掉期</t>
+    <t>外汇掉期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E7%8E%87%E6%8E%89%E6%9C%9F</t>
@@ -587,13 +578,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8D%E6%B2%96%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>對沖基金</t>
+    <t>对冲基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>貨幣基金</t>
+    <t>货币基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%84%E5%90%88%E5%9E%8B%E5%9F%BA%E9%87%91</t>
@@ -605,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%A2%BC%E8%B2%A8%E5%B9%A3</t>
   </si>
   <si>
-    <t>密碼貨幣</t>
+    <t>密码货币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E7%89%B9%E5%B8%81</t>
@@ -641,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E9%8A%80%E8%A1%8C</t>
   </si>
   <si>
-    <t>商業銀行</t>
+    <t>商业银行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%93%B6%E8%A1%8C</t>
@@ -665,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E8%B3%87%E4%BA%BA</t>
   </si>
   <si>
-    <t>投資人</t>
+    <t>投资人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%A3%E6%88%B7</t>
@@ -677,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B6%E6%B2%96%E5%AE%A2</t>
   </si>
   <si>
-    <t>當沖客</t>
+    <t>当冲客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%A0%BB%E4%BA%A4%E6%98%93</t>
   </si>
   <si>
-    <t>高頻交易</t>
+    <t>高频交易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Beta%E7%B3%BB%E6%95%B0</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%A8%E5%80%BC</t>
   </si>
   <si>
-    <t>淨值</t>
+    <t>净值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E8%B5%84%E4%BA%A7%E5%AE%9A%E4%BB%B7%E6%A8%A1%E5%9E%8B</t>
@@ -713,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%81%AF%E8%B2%BC%E7%8F%BE%E6%A8%A1%E5%9E%8B</t>
   </si>
   <si>
-    <t>股息貼現模型</t>
+    <t>股息贴现模型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%98%E6%95%B0%E5%AE%9A%E4%BB%B7%E6%A8%A1%E5%9E%8B</t>
@@ -731,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E7%8F%BE%E9%87%91%E6%B5%81%E9%87%8F</t>
   </si>
   <si>
-    <t>自由現金流量</t>
+    <t>自由现金流量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E8%82%A1%E7%9B%88%E9%A4%98</t>
   </si>
   <si>
-    <t>每股盈餘</t>
+    <t>每股盈馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%9B%8A%E6%AF%94</t>
@@ -755,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%8C%A2%E7%9A%84%E6%99%82%E9%96%93%E5%83%B9%E5%80%BC</t>
   </si>
   <si>
-    <t>金錢的時間價值</t>
+    <t>金钱的时间价值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B7%E5%85%A5%E6%8C%81%E6%9C%89%E7%AD%96%E7%95%A5</t>
   </si>
   <si>
-    <t>買入持有策略</t>
+    <t>买入持有策略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%97%E5%88%A9</t>
@@ -773,15 +764,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%88%E7%8E%87%E5%B8%82%E5%A0%B4%E5%81%87%E8%AA%AA</t>
   </si>
   <si>
-    <t>效率市場假說</t>
+    <t>效率市场假说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%80%E8%A1%93%E5%88%86%E6%9E%90</t>
   </si>
   <si>
-    <t>技術分析</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E5%85%8B-%E8%88%92%E5%B0%94%E5%85%B9%E6%A8%A1%E5%9E%8B</t>
   </si>
   <si>
@@ -791,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B9%95%E4%BA%A4%E6%98%93</t>
   </si>
   <si>
-    <t>內幕交易</t>
+    <t>内幕交易</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B3%95%E9%9B%86%E8%B5%84</t>
@@ -803,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E8%8C%B2%E9%A8%99%E5%B1%80</t>
   </si>
   <si>
-    <t>龐茲騙局</t>
+    <t>庞兹骗局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E9%87%91%E8%9E%8D%E9%AA%97%E5%B1%80</t>
@@ -815,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%8B%E7%88%90%E5%AE%A4</t>
   </si>
   <si>
-    <t>鍋爐室</t>
+    <t>锅炉室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E9%BC%A0%E4%BB%93</t>
@@ -827,13 +815,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E9%8C%A2</t>
   </si>
   <si>
-    <t>洗錢</t>
+    <t>洗钱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E9%87%91%E6%A7%93%E6%A1%BF</t>
   </si>
   <si>
-    <t>資金槓桿</t>
+    <t>资金槓杆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E5%88%A9</t>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%A0%AD</t>
   </si>
   <si>
-    <t>空頭</t>
+    <t>空头</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%8A%A8%E6%80%A7</t>
@@ -857,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9A%B1%E5%90%AB%E6%B3%A2%E5%8B%95%E6%80%A7</t>
   </si>
   <si>
-    <t>隱含波動性</t>
+    <t>隐含波动性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VIX%E6%8C%87%E6%95%B0</t>
@@ -875,7 +863,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%81%E5%8B%95%E6%80%A7%E9%99%B7%E9%98%B1</t>
   </si>
   <si>
-    <t>流動性陷阱</t>
+    <t>流动性陷阱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%83%E6%BA%A2%E4%BB%B7%E4%B9%8B%E8%B0%9C</t>
@@ -887,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -899,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E5%B8%82%E5%9C%BA</t>
@@ -2004,7 +1992,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -2030,10 +2018,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2059,10 +2047,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2088,10 +2076,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2117,10 +2105,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>5</v>
@@ -2146,10 +2134,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>5</v>
@@ -2175,10 +2163,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2204,10 +2192,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2233,10 +2221,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2262,10 +2250,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2291,10 +2279,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2320,10 +2308,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2349,10 +2337,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2378,10 +2366,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2407,10 +2395,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2436,10 +2424,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2465,10 +2453,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -2494,10 +2482,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2523,10 +2511,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>4</v>
@@ -2552,10 +2540,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2581,10 +2569,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2610,10 +2598,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2639,10 +2627,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>7</v>
@@ -2668,10 +2656,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
         <v>87</v>
-      </c>
-      <c r="F49" t="s">
-        <v>88</v>
       </c>
       <c r="G49" t="n">
         <v>6</v>
@@ -2697,10 +2685,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2726,10 +2714,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>4</v>
@@ -2755,10 +2743,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2784,10 +2772,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2813,10 +2801,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2842,10 +2830,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2871,10 +2859,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2900,10 +2888,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2929,10 +2917,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2958,10 +2946,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2987,10 +2975,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3016,10 +3004,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3045,10 +3033,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3074,10 +3062,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3103,10 +3091,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3132,10 +3120,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3161,10 +3149,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" t="s">
         <v>93</v>
-      </c>
-      <c r="F66" t="s">
-        <v>94</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3190,10 +3178,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3219,10 +3207,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3248,10 +3236,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>6</v>
@@ -3277,10 +3265,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3306,10 +3294,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3335,10 +3323,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3364,10 +3352,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3393,10 +3381,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3422,10 +3410,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3451,10 +3439,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3480,10 +3468,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3509,10 +3497,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3538,10 +3526,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3567,10 +3555,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3596,10 +3584,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>35</v>
@@ -3625,10 +3613,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>6</v>
@@ -3654,10 +3642,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3683,10 +3671,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3712,10 +3700,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3741,10 +3729,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3770,10 +3758,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3799,10 +3787,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3828,10 +3816,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3857,10 +3845,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3886,10 +3874,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3915,10 +3903,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3944,10 +3932,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3973,10 +3961,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4002,10 +3990,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4031,10 +4019,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4060,10 +4048,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4089,10 +4077,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4118,10 +4106,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4147,10 +4135,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4176,10 +4164,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4205,10 +4193,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4234,10 +4222,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4263,10 +4251,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4292,10 +4280,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4321,10 +4309,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4350,10 +4338,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4379,10 +4367,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4408,10 +4396,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4437,10 +4425,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G110" t="n">
         <v>4</v>
@@ -4466,10 +4454,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4495,10 +4483,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4524,10 +4512,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4553,10 +4541,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4582,10 +4570,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4611,10 +4599,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4640,10 +4628,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4669,10 +4657,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4698,10 +4686,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4727,10 +4715,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4756,10 +4744,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4785,10 +4773,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4814,10 +4802,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4843,10 +4831,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4872,10 +4860,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4901,10 +4889,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4930,10 +4918,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4959,10 +4947,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4988,10 +4976,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>100</v>
+      </c>
+      <c r="F129" t="s">
         <v>101</v>
-      </c>
-      <c r="F129" t="s">
-        <v>102</v>
       </c>
       <c r="G129" t="n">
         <v>4</v>
@@ -5017,10 +5005,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>99</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5046,10 +5034,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5075,10 +5063,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5104,10 +5092,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5133,10 +5121,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5162,10 +5150,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5191,10 +5179,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5220,10 +5208,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5249,10 +5237,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5278,10 +5266,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5307,10 +5295,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5336,10 +5324,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5365,10 +5353,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5394,10 +5382,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5423,10 +5411,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5452,10 +5440,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5481,10 +5469,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5510,10 +5498,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5539,10 +5527,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5568,10 +5556,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5597,10 +5585,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5626,10 +5614,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -5655,10 +5643,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
